--- a/data/doc_data.xlsx
+++ b/data/doc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>grade_score</t>
   </si>
@@ -61,9 +61,6 @@
     <t>z4x89uy8dwl8hkj</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>z4ybbbm09te4q9b</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>thf7pqyy2hy0glu</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>vt4p0qwwzo09gic</t>
@@ -778,8 +772,8 @@
       <c r="E2" t="n">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -811,7 +805,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>6.79266</v>
@@ -825,8 +819,8 @@
       <c r="E3" t="n">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -858,7 +852,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>4.85269</v>
@@ -872,8 +866,8 @@
       <c r="E4" t="n">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -905,7 +899,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>5.31914</v>
@@ -919,8 +913,8 @@
       <c r="E5" t="n">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -952,7 +946,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>7.88382</v>
@@ -966,8 +960,8 @@
       <c r="E6" t="n">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -999,7 +993,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>4.82314</v>
@@ -1013,8 +1007,8 @@
       <c r="E7" t="n">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1046,7 +1040,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>4.25435</v>
@@ -1060,8 +1054,8 @@
       <c r="E8" t="n">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1093,7 +1087,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>6.32581</v>
@@ -1107,8 +1101,8 @@
       <c r="E9" t="n">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1140,7 +1134,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>9.144500000000001</v>
@@ -1154,8 +1148,8 @@
       <c r="E10" t="n">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1187,7 +1181,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>6.58284</v>
@@ -1201,8 +1195,8 @@
       <c r="E11" t="n">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>6.71867</v>
@@ -1248,8 +1242,8 @@
       <c r="E12" t="n">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>26</v>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1281,7 +1275,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>6.365</v>
@@ -1295,8 +1289,8 @@
       <c r="E13" t="n">
         <v>94</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>6.9797</v>
@@ -1342,8 +1336,8 @@
       <c r="E14" t="n">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
-        <v>26</v>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>6.16418</v>
@@ -1389,8 +1383,8 @@
       <c r="E15" t="n">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1422,7 +1416,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
         <v>5.97518</v>
@@ -1436,8 +1430,8 @@
       <c r="E16" t="n">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1469,7 +1463,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
         <v>6.88302</v>
@@ -1483,8 +1477,8 @@
       <c r="E17" t="n">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
-        <v>26</v>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
         <v>6.71815</v>
@@ -1530,8 +1524,8 @@
       <c r="E18" t="n">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
-        <v>26</v>
+      <c r="F18" t="n">
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1563,7 +1557,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
         <v>6.26792</v>
@@ -1577,8 +1571,8 @@
       <c r="E19" t="n">
         <v>45</v>
       </c>
-      <c r="F19" t="s">
-        <v>26</v>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1610,7 +1604,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
         <v>6.56304</v>
@@ -1624,8 +1618,8 @@
       <c r="E20" t="n">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
-        <v>26</v>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
         <v>6.27196</v>
@@ -1671,8 +1665,8 @@
       <c r="E21" t="n">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
-        <v>26</v>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1704,7 +1698,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>6.59362</v>
@@ -1718,8 +1712,8 @@
       <c r="E22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
-        <v>26</v>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>6.99909</v>
@@ -1765,8 +1759,8 @@
       <c r="E23" t="n">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
-        <v>26</v>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>7.0972</v>
@@ -1812,8 +1806,8 @@
       <c r="E24" t="n">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1845,7 +1839,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
         <v>6.69681</v>
@@ -1859,8 +1853,8 @@
       <c r="E25" t="n">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1892,7 +1886,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
         <v>6.06344</v>
@@ -1906,8 +1900,8 @@
       <c r="E26" t="n">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
-        <v>15</v>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1939,7 +1933,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
         <v>6.4103</v>
@@ -1953,8 +1947,8 @@
       <c r="E27" t="n">
         <v>67</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1986,7 +1980,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
         <v>5.98113</v>
@@ -2000,8 +1994,8 @@
       <c r="E28" t="n">
         <v>67</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2033,7 +2027,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
         <v>6.07177</v>
@@ -2047,8 +2041,8 @@
       <c r="E29" t="n">
         <v>40</v>
       </c>
-      <c r="F29" t="s">
-        <v>15</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2080,7 +2074,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
         <v>6.27881</v>
@@ -2094,8 +2088,8 @@
       <c r="E30" t="n">
         <v>49</v>
       </c>
-      <c r="F30" t="s">
-        <v>15</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2127,7 +2121,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
         <v>6.11837</v>
@@ -2141,8 +2135,8 @@
       <c r="E31" t="n">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2174,7 +2168,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
         <v>6.39543</v>
@@ -2188,8 +2182,8 @@
       <c r="E32" t="n">
         <v>40</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2221,7 +2215,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
         <v>5.94048</v>
@@ -2235,8 +2229,8 @@
       <c r="E33" t="n">
         <v>49</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2268,7 +2262,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
         <v>6.07276</v>
@@ -2282,8 +2276,8 @@
       <c r="E34" t="n">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2315,7 +2309,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
         <v>5.9851</v>
@@ -2329,8 +2323,8 @@
       <c r="E35" t="n">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
-        <v>15</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2362,7 +2356,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
         <v>5.98907</v>
@@ -2376,8 +2370,8 @@
       <c r="E36" t="n">
         <v>49</v>
       </c>
-      <c r="F36" t="s">
-        <v>15</v>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2409,7 +2403,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
         <v>5.93135</v>
@@ -2423,8 +2417,8 @@
       <c r="E37" t="n">
         <v>49</v>
       </c>
-      <c r="F37" t="s">
-        <v>15</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2456,7 +2450,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
         <v>6.01009</v>
@@ -2470,8 +2464,8 @@
       <c r="E38" t="n">
         <v>49</v>
       </c>
-      <c r="F38" t="s">
-        <v>15</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
         <v>6.76767</v>
@@ -2517,8 +2511,8 @@
       <c r="E39" t="n">
         <v>48</v>
       </c>
-      <c r="F39" t="s">
-        <v>15</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2550,7 +2544,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
         <v>5.71012</v>
@@ -2564,8 +2558,8 @@
       <c r="E40" t="n">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
-        <v>15</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2597,7 +2591,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
         <v>5.87319</v>
@@ -2611,8 +2605,8 @@
       <c r="E41" t="n">
         <v>63</v>
       </c>
-      <c r="F41" t="s">
-        <v>15</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
         <v>5.94468</v>
@@ -2658,8 +2652,8 @@
       <c r="E42" t="n">
         <v>39</v>
       </c>
-      <c r="F42" t="s">
-        <v>15</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2691,7 +2685,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
         <v>6.05421</v>
@@ -2705,8 +2699,8 @@
       <c r="E43" t="n">
         <v>23</v>
       </c>
-      <c r="F43" t="s">
-        <v>15</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2738,7 +2732,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
         <v>6.12337</v>
@@ -2752,8 +2746,8 @@
       <c r="E44" t="n">
         <v>63</v>
       </c>
-      <c r="F44" t="s">
-        <v>15</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2785,7 +2779,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
         <v>6.18928</v>
@@ -2799,8 +2793,8 @@
       <c r="E45" t="n">
         <v>35</v>
       </c>
-      <c r="F45" t="s">
-        <v>15</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2832,7 +2826,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
         <v>5.87895</v>
@@ -2846,8 +2840,8 @@
       <c r="E46" t="n">
         <v>63</v>
       </c>
-      <c r="F46" t="s">
-        <v>15</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2879,7 +2873,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
         <v>6.21534</v>
@@ -2893,8 +2887,8 @@
       <c r="E47" t="n">
         <v>6</v>
       </c>
-      <c r="F47" t="s">
-        <v>15</v>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2926,7 +2920,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
         <v>5.83383</v>
@@ -2940,8 +2934,8 @@
       <c r="E48" t="n">
         <v>25</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2973,7 +2967,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" t="n">
         <v>6.63591</v>
@@ -2987,8 +2981,8 @@
       <c r="E49" t="n">
         <v>23</v>
       </c>
-      <c r="F49" t="s">
-        <v>26</v>
+      <c r="F49" t="n">
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3020,7 +3014,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" t="n">
         <v>4.70796</v>
@@ -3034,8 +3028,8 @@
       <c r="E50" t="n">
         <v>66</v>
       </c>
-      <c r="F50" t="s">
-        <v>15</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3067,7 +3061,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" t="n">
         <v>5.55362</v>
@@ -3081,8 +3075,8 @@
       <c r="E51" t="n">
         <v>49</v>
       </c>
-      <c r="F51" t="s">
-        <v>15</v>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3114,7 +3108,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" t="n">
         <v>5.54478</v>
@@ -3128,8 +3122,8 @@
       <c r="E52" t="n">
         <v>65</v>
       </c>
-      <c r="F52" t="s">
-        <v>15</v>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3161,7 +3155,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" t="n">
         <v>5.54327</v>
@@ -3175,8 +3169,8 @@
       <c r="E53" t="n">
         <v>41</v>
       </c>
-      <c r="F53" t="s">
-        <v>15</v>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3208,7 +3202,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" t="n">
         <v>5.54647</v>
@@ -3222,8 +3216,8 @@
       <c r="E54" t="n">
         <v>49</v>
       </c>
-      <c r="F54" t="s">
-        <v>15</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" t="n">
         <v>5.54647</v>
@@ -3269,8 +3263,8 @@
       <c r="E55" t="n">
         <v>49</v>
       </c>
-      <c r="F55" t="s">
-        <v>15</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3302,7 +3296,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" t="n">
         <v>5.60294</v>
@@ -3316,8 +3310,8 @@
       <c r="E56" t="n">
         <v>49</v>
       </c>
-      <c r="F56" t="s">
-        <v>15</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57" t="n">
         <v>5.56605</v>
@@ -3363,8 +3357,8 @@
       <c r="E57" t="n">
         <v>49</v>
       </c>
-      <c r="F57" t="s">
-        <v>15</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3396,7 +3390,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58" t="n">
         <v>6.27916</v>
@@ -3410,8 +3404,8 @@
       <c r="E58" t="n">
         <v>73</v>
       </c>
-      <c r="F58" t="s">
-        <v>15</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3443,7 +3437,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" t="n">
         <v>6.01148</v>
@@ -3457,8 +3451,8 @@
       <c r="E59" t="n">
         <v>24</v>
       </c>
-      <c r="F59" t="s">
-        <v>15</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3490,7 +3484,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60" t="n">
         <v>5.80742</v>
@@ -3504,8 +3498,8 @@
       <c r="E60" t="n">
         <v>49</v>
       </c>
-      <c r="F60" t="s">
-        <v>15</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3537,7 +3531,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" t="n">
         <v>7.38762</v>
@@ -3551,8 +3545,8 @@
       <c r="E61" t="n">
         <v>48</v>
       </c>
-      <c r="F61" t="s">
-        <v>15</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3584,7 +3578,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" t="n">
         <v>7.0364</v>
@@ -3598,8 +3592,8 @@
       <c r="E62" t="n">
         <v>48</v>
       </c>
-      <c r="F62" t="s">
-        <v>15</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3631,7 +3625,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
         <v>7.2484</v>
@@ -3645,8 +3639,8 @@
       <c r="E63" t="n">
         <v>45</v>
       </c>
-      <c r="F63" t="s">
-        <v>15</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3678,7 +3672,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
         <v>6.03734</v>
@@ -3692,8 +3686,8 @@
       <c r="E64" t="n">
         <v>49</v>
       </c>
-      <c r="F64" t="s">
-        <v>15</v>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3725,7 +3719,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
         <v>5.9974</v>
@@ -3739,8 +3733,8 @@
       <c r="E65" t="n">
         <v>67</v>
       </c>
-      <c r="F65" t="s">
-        <v>15</v>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3772,7 +3766,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" t="n">
         <v>5.94841</v>
@@ -3786,8 +3780,8 @@
       <c r="E66" t="n">
         <v>67</v>
       </c>
-      <c r="F66" t="s">
-        <v>15</v>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" t="n">
         <v>5.7021</v>
@@ -3833,8 +3827,8 @@
       <c r="E67" t="n">
         <v>39</v>
       </c>
-      <c r="F67" t="s">
-        <v>15</v>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3866,7 +3860,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68" t="n">
         <v>5.88832</v>
@@ -3880,8 +3874,8 @@
       <c r="E68" t="n">
         <v>24</v>
       </c>
-      <c r="F68" t="s">
-        <v>15</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3913,7 +3907,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69" t="n">
         <v>5.48077</v>
@@ -3927,8 +3921,8 @@
       <c r="E69" t="n">
         <v>24</v>
       </c>
-      <c r="F69" t="s">
-        <v>15</v>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3960,7 +3954,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" t="n">
         <v>6.38777</v>
@@ -3974,8 +3968,8 @@
       <c r="E70" t="n">
         <v>22</v>
       </c>
-      <c r="F70" t="s">
-        <v>26</v>
+      <c r="F70" t="n">
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4007,7 +4001,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" t="n">
         <v>6.15211</v>
@@ -4021,8 +4015,8 @@
       <c r="E71" t="n">
         <v>45</v>
       </c>
-      <c r="F71" t="s">
-        <v>26</v>
+      <c r="F71" t="n">
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4054,7 +4048,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" t="n">
         <v>6.91425</v>
@@ -4068,8 +4062,8 @@
       <c r="E72" t="n">
         <v>21</v>
       </c>
-      <c r="F72" t="s">
-        <v>26</v>
+      <c r="F72" t="n">
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -4101,7 +4095,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73" t="n">
         <v>6.91685</v>
@@ -4115,8 +4109,8 @@
       <c r="E73" t="n">
         <v>45</v>
       </c>
-      <c r="F73" t="s">
-        <v>15</v>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4148,7 +4142,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" t="n">
         <v>6.92388</v>
@@ -4162,8 +4156,8 @@
       <c r="E74" t="n">
         <v>22</v>
       </c>
-      <c r="F74" t="s">
-        <v>26</v>
+      <c r="F74" t="n">
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -4195,7 +4189,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" t="n">
         <v>6.64841</v>
@@ -4209,8 +4203,8 @@
       <c r="E75" t="n">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
-        <v>26</v>
+      <c r="F75" t="n">
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4242,7 +4236,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" t="n">
         <v>5.99442</v>
@@ -4256,8 +4250,8 @@
       <c r="E76" t="n">
         <v>40</v>
       </c>
-      <c r="F76" t="s">
-        <v>15</v>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4289,7 +4283,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" t="n">
         <v>5.94762</v>
@@ -4303,8 +4297,8 @@
       <c r="E77" t="n">
         <v>44</v>
       </c>
-      <c r="F77" t="s">
-        <v>15</v>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4336,7 +4330,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" t="n">
         <v>6.3159</v>
@@ -4350,8 +4344,8 @@
       <c r="E78" t="n">
         <v>20</v>
       </c>
-      <c r="F78" t="s">
-        <v>15</v>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4383,7 +4377,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" t="n">
         <v>6.16874</v>
@@ -4397,8 +4391,8 @@
       <c r="E79" t="n">
         <v>67</v>
       </c>
-      <c r="F79" t="s">
-        <v>15</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4430,7 +4424,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" t="n">
         <v>5.34373</v>
@@ -4444,8 +4438,8 @@
       <c r="E80" t="n">
         <v>65</v>
       </c>
-      <c r="F80" t="s">
-        <v>15</v>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4477,7 +4471,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" t="n">
         <v>4.79398</v>
@@ -4491,8 +4485,8 @@
       <c r="E81" t="n">
         <v>67</v>
       </c>
-      <c r="F81" t="s">
-        <v>15</v>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4524,7 +4518,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82" t="n">
         <v>5.3947</v>
@@ -4538,8 +4532,8 @@
       <c r="E82" t="n">
         <v>43</v>
       </c>
-      <c r="F82" t="s">
-        <v>15</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4571,7 +4565,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" t="n">
         <v>5.24834</v>
@@ -4585,8 +4579,8 @@
       <c r="E83" t="n">
         <v>67</v>
       </c>
-      <c r="F83" t="s">
-        <v>15</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4618,7 +4612,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" t="n">
         <v>5.54939</v>
@@ -4632,8 +4626,8 @@
       <c r="E84" t="n">
         <v>24</v>
       </c>
-      <c r="F84" t="s">
-        <v>15</v>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4665,7 +4659,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" t="n">
         <v>5.45241</v>
@@ -4679,8 +4673,8 @@
       <c r="E85" t="n">
         <v>24</v>
       </c>
-      <c r="F85" t="s">
-        <v>15</v>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4712,7 +4706,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86" t="n">
         <v>5.90909</v>
@@ -4726,8 +4720,8 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="s">
-        <v>15</v>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4759,7 +4753,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" t="n">
         <v>5.08651</v>
@@ -4773,8 +4767,8 @@
       <c r="E87" t="n">
         <v>66</v>
       </c>
-      <c r="F87" t="s">
-        <v>15</v>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4806,7 +4800,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" t="n">
         <v>5.02027</v>
@@ -4820,8 +4814,8 @@
       <c r="E88" t="n">
         <v>49</v>
       </c>
-      <c r="F88" t="s">
-        <v>15</v>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4853,7 +4847,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" t="n">
         <v>5.12994</v>
@@ -4867,8 +4861,8 @@
       <c r="E89" t="n">
         <v>67</v>
       </c>
-      <c r="F89" t="s">
-        <v>15</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4900,7 +4894,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" t="n">
         <v>6.03615</v>
@@ -4914,8 +4908,8 @@
       <c r="E90" t="n">
         <v>39</v>
       </c>
-      <c r="F90" t="s">
-        <v>15</v>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4947,7 +4941,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" t="n">
         <v>5.94801</v>
@@ -4961,8 +4955,8 @@
       <c r="E91" t="n">
         <v>49</v>
       </c>
-      <c r="F91" t="s">
-        <v>15</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4994,7 +4988,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" t="n">
         <v>5.14144</v>
@@ -5008,8 +5002,8 @@
       <c r="E92" t="n">
         <v>49</v>
       </c>
-      <c r="F92" t="s">
-        <v>15</v>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5041,7 +5035,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="n">
         <v>6.28258</v>
@@ -5055,8 +5049,8 @@
       <c r="E93" t="n">
         <v>49</v>
       </c>
-      <c r="F93" t="s">
-        <v>15</v>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5088,7 +5082,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" t="n">
         <v>6.20623</v>
@@ -5102,8 +5096,8 @@
       <c r="E94" t="n">
         <v>44</v>
       </c>
-      <c r="F94" t="s">
-        <v>15</v>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5135,7 +5129,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" t="n">
         <v>5.72771</v>
@@ -5149,8 +5143,8 @@
       <c r="E95" t="n">
         <v>64</v>
       </c>
-      <c r="F95" t="s">
-        <v>15</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5182,7 +5176,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" t="n">
         <v>5.6861</v>
@@ -5196,8 +5190,8 @@
       <c r="E96" t="n">
         <v>65</v>
       </c>
-      <c r="F96" t="s">
-        <v>15</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5229,7 +5223,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" t="n">
         <v>5.1464</v>
@@ -5243,8 +5237,8 @@
       <c r="E97" t="n">
         <v>22</v>
       </c>
-      <c r="F97" t="s">
-        <v>15</v>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5276,7 +5270,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" t="n">
         <v>5.46411</v>
@@ -5290,8 +5284,8 @@
       <c r="E98" t="n">
         <v>67</v>
       </c>
-      <c r="F98" t="s">
-        <v>15</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5323,7 +5317,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" t="n">
         <v>5.15057</v>
@@ -5337,8 +5331,8 @@
       <c r="E99" t="n">
         <v>49</v>
       </c>
-      <c r="F99" t="s">
-        <v>15</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5370,7 +5364,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" t="n">
         <v>5.08195</v>
@@ -5384,8 +5378,8 @@
       <c r="E100" t="n">
         <v>21</v>
       </c>
-      <c r="F100" t="s">
-        <v>15</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5417,7 +5411,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" t="n">
         <v>6.05361</v>
@@ -5431,8 +5425,8 @@
       <c r="E101" t="n">
         <v>44</v>
       </c>
-      <c r="F101" t="s">
-        <v>26</v>
+      <c r="F101" t="n">
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
